--- a/Beer.xlsx
+++ b/Beer.xlsx
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F15"/>
+  <dimension ref="B3:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,9 +452,10 @@
     <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="3" width="47.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -471,8 +472,11 @@
         <f>PRODUCT(D3,E3)</f>
         <v>5720</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I3" s="2">
+        <v>6866</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -490,7 +494,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -507,8 +511,11 @@
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I5" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -525,8 +532,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I6" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -544,7 +554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -562,7 +572,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -580,7 +590,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -598,7 +608,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -616,7 +626,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -633,8 +643,11 @@
         <f t="shared" si="0"/>
         <v>909</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I12" s="2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -652,7 +665,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -670,7 +683,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F15">
         <f>SUM(F3:F14)</f>
         <v>12988</v>

--- a/Beer.xlsx
+++ b/Beer.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Nextion Enhanced NX8048K070</t>
   </si>
@@ -86,13 +86,16 @@
   </si>
   <si>
     <t>Вентилятор 220В, 80х80х38</t>
+  </si>
+  <si>
+    <t>12 ЩРУ-1Н-12 IP31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +107,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,10 +148,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -197,7 +220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,7 +255,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I15"/>
+  <dimension ref="A3:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +478,7 @@
     <col min="9" max="9" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -476,7 +499,7 @@
         <v>6866</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -493,8 +516,11 @@
         <f t="shared" ref="F4:F14" si="0">PRODUCT(D4,E4)</f>
         <v>302</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -515,7 +541,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -536,7 +562,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -554,7 +580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -571,44 +597,55 @@
         <f t="shared" si="0"/>
         <v>3040</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="I8" s="2">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>341</v>
       </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>341</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>740</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>1480</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -626,7 +663,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -647,7 +684,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -665,7 +702,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -683,10 +720,20 @@
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>669</v>
+      </c>
       <c r="F15">
         <f>SUM(F3:F14)</f>
         <v>12988</v>
+      </c>
+      <c r="I15" s="2">
+        <f>SUM(I3:I14)</f>
+        <v>12200</v>
       </c>
     </row>
   </sheetData>
@@ -703,8 +750,9 @@
     <hyperlink ref="C7" r:id="rId10"/>
     <hyperlink ref="C10" r:id="rId11" display="https://www.chipdip.ru/product/ec8038a2hbl"/>
     <hyperlink ref="C3" r:id="rId12"/>
+    <hyperlink ref="C15" r:id="rId13" display="https://market.yandex.ru/product--shchit-uchetno-raspredelitelnyi-rucelf-navesnoi-modulei-12-shchru-1n-12-ip31/388458097?show-uid=15730627962493390042116002&amp;nid=56409&amp;lr=11&amp;context=search"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Beer.xlsx
+++ b/Beer.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Nextion Enhanced NX8048K070</t>
   </si>
@@ -89,13 +89,16 @@
   </si>
   <si>
     <t>12 ЩРУ-1Н-12 IP31</t>
+  </si>
+  <si>
+    <t>Итого</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +129,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -157,6 +184,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -220,7 +256,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,7 +291,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,6 +514,25 @@
     <col min="9" max="9" width="9.140625" style="2"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="8">
+        <f>SUM(F3:F25)</f>
+        <v>12988</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="10">
+        <f>SUM(I3:I23)</f>
+        <v>13600</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
@@ -719,6 +774,9 @@
         <f t="shared" si="0"/>
         <v>367</v>
       </c>
+      <c r="I14" s="2">
+        <v>1200</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -727,14 +785,12 @@
       <c r="D15">
         <v>669</v>
       </c>
-      <c r="F15">
-        <f>SUM(F3:F14)</f>
-        <v>12988</v>
-      </c>
       <c r="I15" s="2">
-        <f>SUM(I3:I14)</f>
-        <v>12200</v>
-      </c>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Beer.xlsx
+++ b/Beer.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Esp32" sheetId="1" r:id="rId1"/>
+    <sheet name="Arduino" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>Nextion Enhanced NX8048K070</t>
   </si>
@@ -92,6 +94,138 @@
   </si>
   <si>
     <t>Итого</t>
+  </si>
+  <si>
+    <t>Розетка трехфазная 32А</t>
+  </si>
+  <si>
+    <t>РС32-004</t>
+  </si>
+  <si>
+    <t>B32-003</t>
+  </si>
+  <si>
+    <t>Вилка трехфазная</t>
+  </si>
+  <si>
+    <t>Ардуино С экраном 480х320</t>
+  </si>
+  <si>
+    <t>TFT lcd Touch + TFT 3,2 дюймов Shield + Mega 2560 R3</t>
+  </si>
+  <si>
+    <t>Твердотелное реле 40А</t>
+  </si>
+  <si>
+    <t>SSR-40DA</t>
+  </si>
+  <si>
+    <t>Комплект вилка розетка 32А</t>
+  </si>
+  <si>
+    <t>SK32-351-18</t>
+  </si>
+  <si>
+    <t>Распаячная коробка</t>
+  </si>
+  <si>
+    <t>Коробка распаечная ПРОМРУКАВ 150*110*70 мм 40-0310</t>
+  </si>
+  <si>
+    <t>Переключатель</t>
+  </si>
+  <si>
+    <t>MRS-101-2c3-r</t>
+  </si>
+  <si>
+    <t>MRS-103A-c6-R</t>
+  </si>
+  <si>
+    <t>30.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корпус </t>
+  </si>
+  <si>
+    <t>G764</t>
+  </si>
+  <si>
+    <t>Стойки под платы</t>
+  </si>
+  <si>
+    <t>Разъем 5 пин</t>
+  </si>
+  <si>
+    <t>Разъем 220в</t>
+  </si>
+  <si>
+    <t>EC9225A2HBL</t>
+  </si>
+  <si>
+    <t>Вентилятор 220В</t>
+  </si>
+  <si>
+    <t>AB0071</t>
+  </si>
+  <si>
+    <t>PCHSS-8</t>
+  </si>
+  <si>
+    <t>PCHSS-20</t>
+  </si>
+  <si>
+    <t>PCHSS-18</t>
+  </si>
+  <si>
+    <t>DS1110-5</t>
+  </si>
+  <si>
+    <t>AS-208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  +20%НДС</t>
+  </si>
+  <si>
+    <t>Получено</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ds18b20 </t>
+  </si>
+  <si>
+    <t>Датчик температуры</t>
+  </si>
+  <si>
+    <t>Провод 220</t>
+  </si>
+  <si>
+    <t>ПВС 3х1.5</t>
+  </si>
+  <si>
+    <t>10м</t>
+  </si>
+  <si>
+    <t>Провод</t>
+  </si>
+  <si>
+    <t>ПВС-АП 3*0.75, 220В</t>
+  </si>
+  <si>
+    <t>Кабель сетевой</t>
+  </si>
+  <si>
+    <t>АЗС 3фазный</t>
+  </si>
+  <si>
+    <t>3п ИЭК 40А ВА47-29</t>
+  </si>
+  <si>
+    <t>ПВС 4х 2,5 ГОСТ</t>
+  </si>
+  <si>
+    <t>Кабель экранированный</t>
+  </si>
+  <si>
+    <t>МКЭШ 3х0,75</t>
   </si>
 </sst>
 </file>
@@ -175,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -195,6 +329,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -256,7 +394,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,7 +429,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,9 +650,13 @@
     <col min="3" max="3" width="47.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>25</v>
@@ -529,11 +671,20 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="10">
-        <f>SUM(I3:I23)</f>
-        <v>13600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <f>SUM(I3:I46)</f>
+        <v>15000</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="2">
+        <v>13000</v>
+      </c>
+      <c r="M1" s="12">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -554,7 +705,7 @@
         <v>6866</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -575,7 +726,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -596,7 +747,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -617,7 +768,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -635,7 +786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -656,7 +807,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -678,7 +829,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>18</v>
@@ -700,7 +851,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -718,7 +869,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -739,7 +890,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -757,7 +908,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -778,19 +929,56 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>669</v>
-      </c>
-      <c r="I15" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="F18" s="6"/>
+      <c r="I18" s="2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="2">
+        <v>361</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -806,9 +994,383 @@
     <hyperlink ref="C7" r:id="rId10"/>
     <hyperlink ref="C10" r:id="rId11" display="https://www.chipdip.ru/product/ec8038a2hbl"/>
     <hyperlink ref="C3" r:id="rId12"/>
-    <hyperlink ref="C15" r:id="rId13" display="https://market.yandex.ru/product--shchit-uchetno-raspredelitelnyi-rucelf-navesnoi-modulei-12-shchru-1n-12-ip31/388458097?show-uid=15730627962493390042116002&amp;nid=56409&amp;lr=11&amp;context=search"/>
+    <hyperlink ref="C16" r:id="rId13" display="https://leroymerlin.ru/product/rozetka-s-zazemleniem-rs32-004-250-v-82255035/"/>
+    <hyperlink ref="C17" r:id="rId14"/>
+    <hyperlink ref="C19" r:id="rId15" display="http://elek-r.ru/product/avtomaticheskiy-vyklyuchatel-3p-iek-40a-va47-29-khar-ka-s/"/>
+    <hyperlink ref="C18" r:id="rId16" display="http://elek-r.ru/product/provod-pvs-4kh-25-gost/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="17" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G1" s="2">
+        <f>SUM(G4:G35)</f>
+        <v>6543</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>536</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>886</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>455</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="11">
+        <v>256</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="2">
+        <v>168</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="2">
+        <v>204</v>
+      </c>
+      <c r="H22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="2">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2" display="150x110x70"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="C9" r:id="rId4"/>
+    <hyperlink ref="C10" r:id="rId5"/>
+    <hyperlink ref="C11" r:id="rId6"/>
+    <hyperlink ref="C12" r:id="rId7"/>
+    <hyperlink ref="C13" r:id="rId8"/>
+    <hyperlink ref="C14" r:id="rId9"/>
+    <hyperlink ref="C15" r:id="rId10"/>
+    <hyperlink ref="C16" r:id="rId11"/>
+    <hyperlink ref="C17" r:id="rId12"/>
+    <hyperlink ref="C20" r:id="rId13"/>
+    <hyperlink ref="C21" r:id="rId14"/>
+    <hyperlink ref="C22" r:id="rId15"/>
+    <hyperlink ref="C23" r:id="rId16" display="https://www.artem-tools.ru/catalog/elektrika-i-svet/kabel-i-provod/kabel-mkesh-3kh0-75-mm2-ekranirovan_173394/?utm_source=ya.market&amp;utm_medium=cpa&amp;utm_campaign=678&amp;utm_term=173394&amp;ymclid=15733875028381362340200002"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B11:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>669</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="H11" s="2">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" display="https://market.yandex.ru/product--shchit-uchetno-raspredelitelnyi-rucelf-navesnoi-modulei-12-shchru-1n-12-ip31/388458097?show-uid=15730627962493390042116002&amp;nid=56409&amp;lr=11&amp;context=search"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Beer.xlsx
+++ b/Beer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>Nextion Enhanced NX8048K070</t>
   </si>
@@ -225,7 +225,16 @@
     <t>Кабель экранированный</t>
   </si>
   <si>
-    <t>МКЭШ 3х0,75</t>
+    <t>Релейный модуль</t>
+  </si>
+  <si>
+    <t>RDC1-1RTA</t>
+  </si>
+  <si>
+    <t>CCC-1G</t>
+  </si>
+  <si>
+    <t>5м</t>
   </si>
 </sst>
 </file>
@@ -641,7 +650,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,6 +691,14 @@
       </c>
       <c r="M1" s="12">
         <v>43770</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M2" s="12">
+        <v>43780</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1006,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H23"/>
+  <dimension ref="B1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1042,7 @@
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G1" s="2">
         <f>SUM(G4:G35)</f>
-        <v>6543</v>
+        <v>6812</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -1294,11 +1311,12 @@
       <c r="B22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>63</v>
       </c>
       <c r="G22" s="2">
-        <v>204</v>
+        <f>220+36</f>
+        <v>256</v>
       </c>
       <c r="H22" t="s">
         <v>55</v>
@@ -1309,13 +1327,32 @@
         <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="2">
+        <f>280+46</f>
+        <v>326</v>
+      </c>
+      <c r="H23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="2">
-        <v>330</v>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="2">
+        <f>190+31</f>
+        <v>221</v>
+      </c>
+      <c r="H24" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1334,11 +1371,9 @@
     <hyperlink ref="C17" r:id="rId12"/>
     <hyperlink ref="C20" r:id="rId13"/>
     <hyperlink ref="C21" r:id="rId14"/>
-    <hyperlink ref="C22" r:id="rId15"/>
-    <hyperlink ref="C23" r:id="rId16" display="https://www.artem-tools.ru/catalog/elektrika-i-svet/kabel-i-provod/kabel-mkesh-3kh0-75-mm2-ekranirovan_173394/?utm_source=ya.market&amp;utm_medium=cpa&amp;utm_campaign=678&amp;utm_term=173394&amp;ymclid=15733875028381362340200002"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/Beer.xlsx
+++ b/Beer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Esp32" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>Nextion Enhanced NX8048K070</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>5м</t>
+  </si>
+  <si>
+    <t>Часы реального времени</t>
+  </si>
+  <si>
+    <t>Wf модуль</t>
+  </si>
+  <si>
+    <t>Наклейки</t>
   </si>
 </sst>
 </file>
@@ -649,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -1023,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H24"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,6 +1362,21 @@
       </c>
       <c r="H24" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Beer.xlsx
+++ b/Beer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>Nextion Enhanced NX8048K070</t>
   </si>
@@ -244,6 +244,21 @@
   </si>
   <si>
     <t>Наклейки</t>
+  </si>
+  <si>
+    <t>SD карта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вилка 32А </t>
+  </si>
+  <si>
+    <t>Розетка силовая</t>
+  </si>
+  <si>
+    <t>223 2P+N32A</t>
+  </si>
+  <si>
+    <t>523 2P + N 32А</t>
   </si>
 </sst>
 </file>
@@ -1032,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,8 +1065,8 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G1" s="2">
-        <f>SUM(G4:G35)</f>
-        <v>6812</v>
+        <f>SUM(G4:G39)</f>
+        <v>8271</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -1368,14 +1383,47 @@
       <c r="B26" t="s">
         <v>75</v>
       </c>
+      <c r="G26" s="2">
+        <v>333</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="G27" s="2">
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>74</v>
       </c>
     </row>

--- a/Beer.xlsx
+++ b/Beer.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Esp32" sheetId="1" r:id="rId1"/>
-    <sheet name="Arduino" sheetId="2" r:id="rId2"/>
+    <sheet name="AirBrew" sheetId="1" r:id="rId1"/>
+    <sheet name="Berrduino" sheetId="2" r:id="rId2"/>
     <sheet name="Лист1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t>Nextion Enhanced NX8048K070</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Твердотельное</t>
   </si>
   <si>
-    <t>Реле</t>
-  </si>
-  <si>
-    <t>SQ0701-0014, РЭК78/3 24DC, Реле 3 пер. 5A/230VAC</t>
-  </si>
-  <si>
     <t>DS18B20</t>
   </si>
   <si>
@@ -259,6 +253,24 @@
   </si>
   <si>
     <t>523 2P + N 32А</t>
+  </si>
+  <si>
+    <t>Итого:</t>
+  </si>
+  <si>
+    <t>Мне должны</t>
+  </si>
+  <si>
+    <t>Расчетное</t>
+  </si>
+  <si>
+    <t>Фактически</t>
+  </si>
+  <si>
+    <t>Израсходованно AirBrew, Beerduino</t>
+  </si>
+  <si>
+    <t>Выключатели</t>
   </si>
 </sst>
 </file>
@@ -427,7 +439,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,7 +474,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,28 +699,30 @@
     <col min="11" max="11" width="10.5703125" customWidth="1"/>
     <col min="12" max="12" width="14" style="2" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="21" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="9"/>
       <c r="F1" s="8">
         <f>SUM(F3:F25)</f>
-        <v>12988</v>
+        <v>13049</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="10">
         <f>SUM(I3:I46)</f>
-        <v>15000</v>
+        <v>15578</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L1" s="2">
         <v>13000</v>
@@ -716,8 +730,20 @@
       <c r="M1" s="12">
         <v>43770</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="L2" s="2">
         <v>8500</v>
       </c>
@@ -725,7 +751,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -745,8 +771,23 @@
       <c r="I3" s="2">
         <v>6866</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="2">
+        <f>SUM(L1:L2)</f>
+        <v>21500</v>
+      </c>
+      <c r="O3">
+        <f>SUM(I1,Berrduino!G1)</f>
+        <v>23849</v>
+      </c>
+      <c r="Q3">
+        <f>SUM(O3,L3*-1)</f>
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -767,7 +808,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -788,7 +829,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -809,12 +850,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -827,7 +868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -848,13 +889,13 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3">
         <v>341</v>
@@ -870,13 +911,13 @@
       <c r="H9" s="3"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3">
         <v>740</v>
@@ -892,30 +933,34 @@
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>160</v>
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="2">
+        <f>190+31</f>
+        <v>221</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="I11" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>909</v>
@@ -931,12 +976,12 @@
         <v>910</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>357</v>
@@ -948,13 +993,16 @@
         <f t="shared" si="0"/>
         <v>357</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I13" s="2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>367</v>
@@ -970,15 +1018,15 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I16" s="2">
         <v>188</v>
@@ -986,10 +1034,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I17" s="2">
         <v>221</v>
@@ -997,13 +1045,13 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F18" s="6"/>
       <c r="I18" s="2">
@@ -1012,13 +1060,18 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I19" s="2">
         <v>361</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1026,22 +1079,21 @@
     <hyperlink ref="C4" r:id="rId1"/>
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C11" r:id="rId4" display="https://www.chipdip.ru/product/rek78-3-24dc-sq0701-0014"/>
-    <hyperlink ref="C12" r:id="rId5"/>
-    <hyperlink ref="C9" r:id="rId6" display="https://ru.aliexpress.com/item/32914236957.html?algo_expid=5ebacdcf-3ed3-4369-9165-997171625d6b-0&amp;algo_pvid=5ebacdcf-3ed3-4369-9165-997171625d6b&amp;btsid=f71751ae-699d-434b-9471-4881b77dd97c&amp;s=p&amp;spm=a2g0o.productlist.0.0.686665efi4OL5E&amp;ws_ab_test=searchweb0_"/>
-    <hyperlink ref="C13" r:id="rId7" display="https://ryazan.leroymerlin.ru/product/vyklyuchatel-avtomaticheskiy-iek-va47-29-3-polyusa-63-a-18072491/"/>
-    <hyperlink ref="C14" r:id="rId8" display="Luxray ЩРН-П-8 на 8 модулей"/>
-    <hyperlink ref="C8" r:id="rId9" display="https://www.chipdip.ru/product/hhg1-3-032f-38-60a"/>
-    <hyperlink ref="C7" r:id="rId10"/>
-    <hyperlink ref="C10" r:id="rId11" display="https://www.chipdip.ru/product/ec8038a2hbl"/>
-    <hyperlink ref="C3" r:id="rId12"/>
-    <hyperlink ref="C16" r:id="rId13" display="https://leroymerlin.ru/product/rozetka-s-zazemleniem-rs32-004-250-v-82255035/"/>
-    <hyperlink ref="C17" r:id="rId14"/>
-    <hyperlink ref="C19" r:id="rId15" display="http://elek-r.ru/product/avtomaticheskiy-vyklyuchatel-3p-iek-40a-va47-29-khar-ka-s/"/>
-    <hyperlink ref="C18" r:id="rId16" display="http://elek-r.ru/product/provod-pvs-4kh-25-gost/"/>
+    <hyperlink ref="C12" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5" display="https://ru.aliexpress.com/item/32914236957.html?algo_expid=5ebacdcf-3ed3-4369-9165-997171625d6b-0&amp;algo_pvid=5ebacdcf-3ed3-4369-9165-997171625d6b&amp;btsid=f71751ae-699d-434b-9471-4881b77dd97c&amp;s=p&amp;spm=a2g0o.productlist.0.0.686665efi4OL5E&amp;ws_ab_test=searchweb0_"/>
+    <hyperlink ref="C13" r:id="rId6" display="https://ryazan.leroymerlin.ru/product/vyklyuchatel-avtomaticheskiy-iek-va47-29-3-polyusa-63-a-18072491/"/>
+    <hyperlink ref="C14" r:id="rId7" display="Luxray ЩРН-П-8 на 8 модулей"/>
+    <hyperlink ref="C8" r:id="rId8" display="https://www.chipdip.ru/product/hhg1-3-032f-38-60a"/>
+    <hyperlink ref="C7" r:id="rId9"/>
+    <hyperlink ref="C10" r:id="rId10" display="https://www.chipdip.ru/product/ec8038a2hbl"/>
+    <hyperlink ref="C3" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12" display="https://leroymerlin.ru/product/rozetka-s-zazemleniem-rs32-004-250-v-82255035/"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C19" r:id="rId14" display="http://elek-r.ru/product/avtomaticheskiy-vyklyuchatel-3p-iek-40a-va47-29-khar-ka-s/"/>
+    <hyperlink ref="C18" r:id="rId15" display="http://elek-r.ru/product/provod-pvs-4kh-25-gost/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -1049,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,17 +1116,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
       <c r="G1" s="2">
         <f>SUM(G4:G39)</f>
         <v>8271</v>
       </c>
     </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -1085,10 +1145,10 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -1099,10 +1159,10 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -1113,10 +1173,10 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -1127,27 +1187,27 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1156,15 +1216,15 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -1173,15 +1233,15 @@
         <v>536</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -1190,15 +1250,15 @@
         <v>886</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -1207,15 +1267,15 @@
         <v>455</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
@@ -1224,15 +1284,15 @@
         <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
@@ -1241,15 +1301,15 @@
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2">
         <v>2</v>
@@ -1258,15 +1318,15 @@
         <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2">
         <v>2</v>
@@ -1275,15 +1335,15 @@
         <v>256</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -1292,7 +1352,7 @@
         <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -1305,27 +1365,27 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G20" s="2">
         <v>168</v>
       </c>
       <c r="H20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="G21" s="2">
         <v>471</v>
@@ -1333,55 +1393,55 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G22" s="2">
         <f>220+36</f>
         <v>256</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G23" s="2">
         <f>280+46</f>
         <v>326</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G24" s="2">
         <f>190+31</f>
         <v>221</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G26" s="2">
         <v>333</v>
@@ -1389,7 +1449,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G27" s="2">
         <v>500</v>
@@ -1397,10 +1457,10 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G28" s="2">
         <v>375</v>
@@ -1408,10 +1468,10 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G29" s="2">
         <v>251</v>
@@ -1419,12 +1479,12 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1524,7 @@
   <sheetData>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>669</v>
